--- a/문서/설계/테이블 정의서.xlsx
+++ b/문서/설계/테이블 정의서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mit\Documents\김승호\KDT_PROCUONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIT03\Desktop\main\KDT\문서\설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="194">
   <si>
     <t>테이블 정의서</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Table: Company</t>
   </si>
   <si>
-    <t>Table: ContractItem</t>
-  </si>
-  <si>
     <t>Table: Item</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>VARCHAR(50)</t>
   </si>
   <si>
-    <t>business_id</t>
-  </si>
-  <si>
     <t>VARCHAR(20)</t>
   </si>
   <si>
@@ -84,15 +78,9 @@
     <t>회사 계좌</t>
   </si>
   <si>
-    <t>contract_yn</t>
-  </si>
-  <si>
     <t>BOOLEAN</t>
   </si>
   <si>
-    <t>계약 여부 (Default: FALSE)</t>
-  </si>
-  <si>
     <t>drawing_file</t>
   </si>
   <si>
@@ -132,9 +120,6 @@
     <t>contract_file</t>
   </si>
   <si>
-    <t>계약 파일</t>
-  </si>
-  <si>
     <t>dimensions</t>
   </si>
   <si>
@@ -187,9 +172,6 @@
   </si>
   <si>
     <t>회사 연락처</t>
-  </si>
-  <si>
-    <t>item_index</t>
   </si>
   <si>
     <t>아이템 인덱스 (Foreign Key -&gt; Item)</t>
@@ -743,6 +725,26 @@
   </si>
   <si>
     <t>조달 계획 기준정보 코드( (Foreign Key -&gt;ProcurementPlan procurement_plan_code)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_code</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>business_id</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약서</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table: Contract</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1110,6 +1112,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1121,10 +1127,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1346,7 +1348,7 @@
   <dimension ref="B2:T65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58"/>
+      <selection activeCell="H7" sqref="H7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1368,39 +1370,39 @@
     </row>
     <row r="4" spans="2:20" ht="14.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="44"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="48"/>
       <c r="P4" s="3"/>
       <c r="R4" s="4"/>
     </row>
     <row r="5" spans="2:20" ht="14.25">
       <c r="B5" s="5"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
       <c r="P5" s="6"/>
       <c r="R5" s="4"/>
     </row>
@@ -1424,22 +1426,22 @@
     </row>
     <row r="7" spans="2:20" ht="20.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="40"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="40"/>
+      <c r="H7" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="I7" s="44"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -1449,35 +1451,35 @@
     <row r="8" spans="2:20" ht="15">
       <c r="B8" s="5"/>
       <c r="C8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>6</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="O8" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="O8" s="10" t="s">
-        <v>6</v>
       </c>
       <c r="P8" s="6"/>
       <c r="R8" s="4"/>
@@ -1485,35 +1487,35 @@
     <row r="9" spans="2:20" ht="15">
       <c r="B9" s="5"/>
       <c r="C9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>8</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="N9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="O9" s="16" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P9" s="6"/>
       <c r="R9" s="4"/>
@@ -1521,35 +1523,35 @@
     <row r="10" spans="2:20" ht="15">
       <c r="B10" s="5"/>
       <c r="C10" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>14</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="I10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>8</v>
-      </c>
       <c r="J10" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
       <c r="M10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="O10" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="P10" s="6"/>
       <c r="R10" s="4"/>
@@ -1557,35 +1559,29 @@
     <row r="11" spans="2:20" ht="15">
       <c r="B11" s="5"/>
       <c r="C11" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P11" s="6"/>
       <c r="R11" s="4"/>
@@ -1594,37 +1590,37 @@
     <row r="12" spans="2:20" ht="15">
       <c r="B12" s="5"/>
       <c r="C12" s="14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N12" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O12" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P12" s="6"/>
       <c r="R12" s="4"/>
@@ -1633,35 +1629,35 @@
     <row r="13" spans="2:20" ht="15">
       <c r="B13" s="5"/>
       <c r="C13" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="P13" s="6"/>
       <c r="R13" s="4"/>
@@ -1670,35 +1666,35 @@
     <row r="14" spans="2:20" ht="15">
       <c r="B14" s="5"/>
       <c r="C14" s="14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
       <c r="M14" s="15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N14" s="16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P14" s="6"/>
       <c r="R14" s="4"/>
@@ -1707,35 +1703,35 @@
     <row r="15" spans="2:20" ht="15">
       <c r="B15" s="5"/>
       <c r="C15" s="14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="14" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="N15" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="P15" s="6"/>
       <c r="T15" s="4"/>
@@ -1743,24 +1739,24 @@
     <row r="16" spans="2:20" ht="15">
       <c r="B16" s="5"/>
       <c r="C16" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="14" t="s">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="J16" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -1773,13 +1769,13 @@
     <row r="17" spans="2:18" ht="14.25">
       <c r="B17" s="5"/>
       <c r="C17" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1794,27 +1790,27 @@
     <row r="18" spans="2:18" ht="20.25">
       <c r="B18" s="5"/>
       <c r="C18" s="14" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
-      <c r="M18" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="N18" s="40"/>
+      <c r="M18" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="N18" s="44"/>
       <c r="O18" s="7"/>
       <c r="P18" s="6"/>
       <c r="R18" s="4"/>
@@ -1822,67 +1818,67 @@
     <row r="19" spans="2:18" ht="15">
       <c r="B19" s="5"/>
       <c r="C19" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="17" t="s">
+      <c r="J19" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>6</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="O19" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>6</v>
       </c>
       <c r="P19" s="6"/>
       <c r="R19" s="4"/>
     </row>
     <row r="20" spans="2:18" ht="20.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="40"/>
+      <c r="C20" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="44"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P20" s="6"/>
       <c r="R20" s="4"/>
@@ -1890,35 +1886,35 @@
     <row r="21" spans="2:18" ht="15">
       <c r="B21" s="5"/>
       <c r="C21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>6</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
       <c r="M21" s="15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N21" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O21" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="P21" s="6"/>
       <c r="R21" s="4"/>
@@ -1926,35 +1922,35 @@
     <row r="22" spans="2:18" ht="15">
       <c r="B22" s="5"/>
       <c r="C22" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="N22" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="P22" s="6"/>
       <c r="R22" s="4"/>
@@ -1962,24 +1958,24 @@
     <row r="23" spans="2:18" ht="15">
       <c r="B23" s="5"/>
       <c r="C23" s="15" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -1989,24 +1985,24 @@
     <row r="24" spans="2:18" ht="15">
       <c r="B24" s="5"/>
       <c r="C24" s="15" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="18" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -2019,24 +2015,24 @@
     <row r="25" spans="2:18" ht="15">
       <c r="B25" s="5"/>
       <c r="C25" s="15" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
@@ -2049,31 +2045,31 @@
     <row r="26" spans="2:18" ht="20.25">
       <c r="B26" s="5"/>
       <c r="C26" s="15" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-      <c r="M26" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="N26" s="40"/>
+      <c r="M26" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="N26" s="44"/>
       <c r="O26" s="7"/>
       <c r="P26" s="6"/>
       <c r="R26" s="4"/>
@@ -2081,13 +2077,13 @@
     <row r="27" spans="2:18" ht="15">
       <c r="B27" s="5"/>
       <c r="C27" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -2097,13 +2093,13 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
       <c r="M27" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="O27" s="10" t="s">
         <v>5</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>6</v>
       </c>
       <c r="P27" s="6"/>
       <c r="R27" s="4"/>
@@ -2111,31 +2107,31 @@
     <row r="28" spans="2:18" ht="20.25">
       <c r="B28" s="5"/>
       <c r="C28" s="15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
       <c r="M28" s="18" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="N28" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O28" s="19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="P28" s="6"/>
       <c r="R28" s="4"/>
@@ -2143,35 +2139,35 @@
     <row r="29" spans="2:18" ht="15">
       <c r="B29" s="5"/>
       <c r="C29" s="15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="17" t="s">
+      <c r="J29" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>6</v>
       </c>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
       <c r="M29" s="18" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="P29" s="21"/>
       <c r="R29" s="4"/>
@@ -2181,45 +2177,45 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="7"/>
       <c r="M30" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N30" s="19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O30" s="19" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="P30" s="21"/>
       <c r="R30" s="4"/>
     </row>
     <row r="31" spans="2:18" ht="20.25">
       <c r="B31" s="5"/>
-      <c r="C31" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="40"/>
+      <c r="C31" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="44"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="18" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
@@ -2229,24 +2225,24 @@
     <row r="32" spans="2:18" ht="15">
       <c r="B32" s="5"/>
       <c r="C32" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="17" t="s">
+      <c r="E32" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>6</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="18" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
@@ -2259,31 +2255,31 @@
     <row r="33" spans="2:18" ht="18.75" customHeight="1">
       <c r="B33" s="5"/>
       <c r="C33" s="23" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>185</v>
+        <v>15</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>179</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="N33" s="40"/>
+      <c r="M33" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="N33" s="44"/>
       <c r="O33" s="7"/>
       <c r="P33" s="6"/>
       <c r="R33" s="4"/>
@@ -2291,35 +2287,35 @@
     <row r="34" spans="2:18" ht="15">
       <c r="B34" s="5"/>
       <c r="C34" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>11</v>
-      </c>
       <c r="E34" s="14" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
       <c r="M34" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N34" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="N34" s="17" t="s">
+      <c r="O34" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="O34" s="17" t="s">
-        <v>6</v>
       </c>
       <c r="P34" s="6"/>
       <c r="R34" s="4"/>
@@ -2327,13 +2323,13 @@
     <row r="35" spans="2:18" ht="15">
       <c r="B35" s="5"/>
       <c r="C35" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -2343,13 +2339,13 @@
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
       <c r="M35" s="18" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O35" s="19" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="P35" s="6"/>
       <c r="R35" s="4"/>
@@ -2357,31 +2353,31 @@
     <row r="36" spans="2:18" ht="20.25">
       <c r="B36" s="5"/>
       <c r="C36" s="14" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="I36" s="40"/>
+      <c r="H36" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="44"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
       <c r="M36" s="18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="N36" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O36" s="19" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="P36" s="6"/>
       <c r="R36" s="4"/>
@@ -2389,35 +2385,35 @@
     <row r="37" spans="2:18" ht="15">
       <c r="B37" s="5"/>
       <c r="C37" s="14" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I37" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="17" t="s">
+      <c r="J37" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="J37" s="17" t="s">
-        <v>6</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
       <c r="M37" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="N37" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="N37" s="19" t="s">
-        <v>11</v>
-      </c>
       <c r="O37" s="19" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="P37" s="6"/>
       <c r="R37" s="4"/>
@@ -2425,35 +2421,35 @@
     <row r="38" spans="2:18" ht="15">
       <c r="B38" s="5"/>
       <c r="C38" s="14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="N38" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O38" s="19" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="P38" s="6"/>
       <c r="R38" s="4"/>
@@ -2461,35 +2457,35 @@
     <row r="39" spans="2:18" ht="15">
       <c r="B39" s="5"/>
       <c r="C39" s="14" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="18" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
       <c r="M39" s="18" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="N39" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O39" s="19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="P39" s="6"/>
       <c r="R39" s="4"/>
@@ -2497,35 +2493,35 @@
     <row r="40" spans="2:18" ht="15">
       <c r="B40" s="5"/>
       <c r="C40" s="14" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
       <c r="M40" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N40" s="19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O40" s="19" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="P40" s="6"/>
       <c r="R40" s="4"/>
@@ -2535,24 +2531,24 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="18" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
       <c r="M41" s="18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="N41" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O41" s="19" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P41" s="6"/>
       <c r="R41" s="4"/>
@@ -2574,10 +2570,10 @@
     </row>
     <row r="43" spans="2:18" ht="20.25">
       <c r="B43" s="5"/>
-      <c r="C43" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" s="40"/>
+      <c r="C43" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="44"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -2595,20 +2591,20 @@
     <row r="44" spans="2:18" ht="20.25">
       <c r="B44" s="5"/>
       <c r="C44" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="E44" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="E44" s="17" t="s">
-        <v>6</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="I44" s="40"/>
+      <c r="H44" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="I44" s="44"/>
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
@@ -2621,31 +2617,31 @@
     <row r="45" spans="2:18" ht="20.25">
       <c r="B45" s="5"/>
       <c r="C45" s="25" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="49" t="s">
-        <v>186</v>
+        <v>15</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>180</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I45" s="17" t="s">
+      <c r="J45" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>6</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
-      <c r="M45" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="N45" s="40"/>
+      <c r="M45" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="N45" s="44"/>
       <c r="O45" s="7"/>
       <c r="P45" s="6"/>
       <c r="R45" s="4"/>
@@ -2653,35 +2649,35 @@
     <row r="46" spans="2:18" ht="15">
       <c r="B46" s="5"/>
       <c r="C46" s="26" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="15" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
       <c r="M46" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="N46" s="17" t="s">
+      <c r="O46" s="17" t="s">
         <v>5</v>
-      </c>
-      <c r="O46" s="17" t="s">
-        <v>6</v>
       </c>
       <c r="P46" s="6"/>
       <c r="R46" s="4"/>
@@ -2689,35 +2685,35 @@
     <row r="47" spans="2:18" ht="15">
       <c r="B47" s="5"/>
       <c r="C47" s="26" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
       <c r="M47" s="18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="N47" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O47" s="19" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="P47" s="6"/>
       <c r="R47" s="4"/>
@@ -2725,35 +2721,35 @@
     <row r="48" spans="2:18" ht="15">
       <c r="B48" s="5"/>
       <c r="C48" s="26" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
       <c r="M48" s="18" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N48" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O48" s="19" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P48" s="6"/>
       <c r="R48" s="4"/>
@@ -2761,35 +2757,35 @@
     <row r="49" spans="2:18" ht="15">
       <c r="B49" s="5"/>
       <c r="C49" s="26" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="27" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="I49" s="28" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="J49" s="28" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="K49" s="7"/>
       <c r="L49" s="7"/>
       <c r="M49" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N49" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O49" s="19" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P49" s="6"/>
       <c r="R49" s="4"/>
@@ -2797,13 +2793,13 @@
     <row r="50" spans="2:18" ht="15">
       <c r="B50" s="5"/>
       <c r="C50" s="26" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -2821,13 +2817,13 @@
     <row r="51" spans="2:18" ht="15">
       <c r="B51" s="5"/>
       <c r="C51" s="26" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -2869,10 +2865,10 @@
       <c r="J53" s="7"/>
       <c r="K53" s="7"/>
       <c r="L53" s="7"/>
-      <c r="M53" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="N53" s="40"/>
+      <c r="M53" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="N53" s="44"/>
       <c r="O53" s="7"/>
       <c r="P53" s="6"/>
       <c r="R53" s="4"/>
@@ -2880,7 +2876,7 @@
     <row r="54" spans="2:18" ht="18.75">
       <c r="B54" s="5"/>
       <c r="C54" s="30" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
@@ -2891,13 +2887,13 @@
       <c r="K54" s="7"/>
       <c r="L54" s="7"/>
       <c r="M54" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="N54" s="32" t="s">
+      <c r="O54" s="32" t="s">
         <v>5</v>
-      </c>
-      <c r="O54" s="32" t="s">
-        <v>6</v>
       </c>
       <c r="P54" s="6"/>
       <c r="R54" s="4"/>
@@ -2905,13 +2901,13 @@
     <row r="55" spans="2:18" ht="16.5">
       <c r="B55" s="5"/>
       <c r="C55" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="E55" s="32" t="s">
         <v>5</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>6</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -2921,13 +2917,13 @@
       <c r="K55" s="7"/>
       <c r="L55" s="33"/>
       <c r="M55" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="N55" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O55" s="16" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P55" s="6"/>
       <c r="R55" s="4"/>
@@ -2935,13 +2931,13 @@
     <row r="56" spans="2:18" ht="15">
       <c r="B56" s="5"/>
       <c r="C56" s="15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -2951,13 +2947,13 @@
       <c r="K56" s="7"/>
       <c r="L56" s="7"/>
       <c r="M56" s="27" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="N56" s="28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O56" s="28" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P56" s="6"/>
       <c r="R56" s="4"/>
@@ -2965,13 +2961,13 @@
     <row r="57" spans="2:18" ht="15">
       <c r="B57" s="5"/>
       <c r="C57" s="15" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
@@ -2980,22 +2976,22 @@
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
       <c r="L57" s="7"/>
-      <c r="M57" s="50"/>
-      <c r="N57" s="50"/>
-      <c r="O57" s="50"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
       <c r="P57" s="6"/>
       <c r="R57" s="4"/>
     </row>
     <row r="58" spans="2:18" ht="15">
       <c r="B58" s="5"/>
       <c r="C58" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>177</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>183</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
@@ -3004,9 +3000,9 @@
       <c r="J58" s="7"/>
       <c r="K58" s="7"/>
       <c r="L58" s="7"/>
-      <c r="M58" s="51"/>
-      <c r="N58" s="51"/>
-      <c r="O58" s="51"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
       <c r="P58" s="6"/>
     </row>
     <row r="59" spans="2:18" ht="15">
